--- a/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/ἐξέρχομαι.xlsx
+++ b/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/ἐξέρχομαι.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,55 +596,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>38602_lxx</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>38602_mt</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ἐξῆλθε δὲ Μωυσῆς εἰς συνάντησιν τῷ γαμβρῷ καὶ προσεκύνησεν αὐτῷ καὶ ἐφίλησεν αὐτόν, καὶ ἠσπάσαντο ἀλλήλους · καὶ εἰσήγαγεν αὐτοὺς εἰς τὴν σκηνήν.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(18, 7)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>εἰς</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>W JY&gt; MCH L QR&gt;T XTNW W JCTXW W JCQ LW W JC&gt;LW &gt;JC L R&lt;HW L CLWM W JB&gt;W H &gt;HLH</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>H &gt;HLH</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>dir-he</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>inanim</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
